--- a/01_signal_production/Data_Generation_woRHC/Data_5K_13_TeV/lq_ta/Cross_Sections/XS_Matriz.xlsx
+++ b/01_signal_production/Data_Generation_woRHC/Data_5K_13_TeV/lq_ta/Cross_Sections/XS_Matriz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,35 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>1750</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>2500</t>
         </is>
@@ -492,33 +477,24 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.756</v>
+        <v>0.0009936000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05727</v>
+        <v>0.0002207</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005877</v>
+        <v>5.843e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0009936000000000001</v>
+        <v>1.772e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0002207</v>
+        <v>5.821e-06</v>
       </c>
       <c r="G2" t="n">
-        <v>5.843e-05</v>
+        <v>2.039e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>1.772e-05</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.821e-06</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.039e-06</v>
-      </c>
-      <c r="K2" t="n">
         <v>7.553e-07</v>
       </c>
     </row>
@@ -529,33 +505,24 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.092</v>
+        <v>0.003948</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2296</v>
+        <v>0.0008885</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02346</v>
+        <v>0.0002348</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003948</v>
+        <v>7.08e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0008885</v>
+        <v>2.327e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0002348</v>
+        <v>8.161e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>7.08e-05</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.327e-05</v>
-      </c>
-      <c r="J3" t="n">
-        <v>8.161e-06</v>
-      </c>
-      <c r="K3" t="n">
         <v>3.008e-06</v>
       </c>
     </row>
@@ -566,33 +533,24 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.07</v>
+        <v>0.01584</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9167</v>
+        <v>0.003534</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09402000000000001</v>
+        <v>0.0009426</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01584</v>
+        <v>0.0002834</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003534</v>
+        <v>9.295e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0009426</v>
+        <v>3.264e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0002834</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9.295e-05</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.264e-05</v>
-      </c>
-      <c r="K4" t="n">
         <v>1.201e-05</v>
       </c>
     </row>
@@ -603,181 +561,164 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63.04</v>
+        <v>0.03552</v>
       </c>
       <c r="C5" t="n">
-        <v>2.069</v>
+        <v>0.007933000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2113</v>
+        <v>0.002113</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03552</v>
+        <v>0.0006387</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007933000000000001</v>
+        <v>0.0002095</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002113</v>
+        <v>7.337e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0006387</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0002095</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7.337e-05</v>
-      </c>
-      <c r="K5" t="n">
         <v>2.702e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112.9</v>
+        <v>0.05132095</v>
       </c>
       <c r="C6" t="n">
-        <v>3.675</v>
+        <v>0.0114448</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3757</v>
+        <v>0.00304724</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06344</v>
+        <v>0.00091653</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01411</v>
+        <v>0.00030121</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003771</v>
+        <v>0.00010571</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00113</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0003723</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0001305</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.819e-05</v>
+        <v>3.895899e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>175.5</v>
+        <v>0.06344</v>
       </c>
       <c r="C7" t="n">
-        <v>5.72</v>
+        <v>0.01411</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5895</v>
+        <v>0.003771</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09931</v>
+        <v>0.00113</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02206</v>
+        <v>0.0003723</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005878</v>
+        <v>0.0001305</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001773</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.0005803</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0002042</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7.514e-05</v>
+        <v>4.819e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>252.2</v>
+        <v>0.09931</v>
       </c>
       <c r="C8" t="n">
-        <v>8.202999999999999</v>
+        <v>0.02206</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8491</v>
+        <v>0.005878</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1426</v>
+        <v>0.001773</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03187</v>
+        <v>0.0005803</v>
       </c>
       <c r="G8" t="n">
-        <v>0.008487</v>
+        <v>0.0002042</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002548</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.0008382</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0002933</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.0001082</v>
+        <v>7.514e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1426</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.03187</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.008487</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.002548</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0008382</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0002933</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0001082</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>343.8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.151</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="B10" t="n">
         <v>0.1935</v>
       </c>
-      <c r="F9" t="n">
+      <c r="C10" t="n">
         <v>0.04324</v>
       </c>
-      <c r="G9" t="n">
+      <c r="D10" t="n">
         <v>0.01153</v>
       </c>
-      <c r="H9" t="n">
+      <c r="E10" t="n">
         <v>0.003467</v>
       </c>
-      <c r="I9" t="n">
+      <c r="F10" t="n">
         <v>0.001142</v>
       </c>
-      <c r="J9" t="n">
+      <c r="G10" t="n">
         <v>0.0003988</v>
       </c>
-      <c r="K9" t="n">
+      <c r="H10" t="n">
         <v>0.0001469</v>
       </c>
     </row>

--- a/01_signal_production/Data_Generation_woRHC/Data_5K_13_TeV/lq_ta/Cross_Sections/XS_Matriz.xlsx
+++ b/01_signal_production/Data_Generation_woRHC/Data_5K_13_TeV/lq_ta/Cross_Sections/XS_Matriz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,253 +473,1597 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.0625</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0009936000000000001</v>
+        <v>6.183e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002207</v>
+        <v>1.378e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>5.843e-05</v>
+        <v>3.673e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>1.772e-05</v>
+        <v>1.093e-06</v>
       </c>
       <c r="F2" t="n">
-        <v>5.821e-06</v>
+        <v>3.617e-07</v>
       </c>
       <c r="G2" t="n">
-        <v>2.039e-06</v>
+        <v>1.275e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>7.553e-07</v>
+        <v>4.681e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.003948</v>
+        <v>0.0002484</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0008885</v>
+        <v>5.537e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0002348</v>
+        <v>1.448e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>7.08e-05</v>
+        <v>4.426e-06</v>
       </c>
       <c r="F3" t="n">
-        <v>2.327e-05</v>
+        <v>1.452e-06</v>
       </c>
       <c r="G3" t="n">
-        <v>8.161e-06</v>
+        <v>5.113e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>3.008e-06</v>
+        <v>1.889e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.1875</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01584</v>
+        <v>0.000557</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003534</v>
+        <v>0.0001244</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0009426</v>
+        <v>3.311e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0002834</v>
+        <v>9.916e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>9.295e-05</v>
+        <v>3.262e-06</v>
       </c>
       <c r="G4" t="n">
-        <v>3.264e-05</v>
+        <v>1.146e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>1.201e-05</v>
+        <v>4.206e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03552</v>
+        <v>0.0009882000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007933000000000001</v>
+        <v>0.0002184</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002113</v>
+        <v>5.899e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0006387</v>
+        <v>1.767e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0002095</v>
+        <v>5.863e-06</v>
       </c>
       <c r="G5" t="n">
-        <v>7.337e-05</v>
+        <v>2.037e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>2.702e-05</v>
+        <v>7.551e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>0.3125</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05132095</v>
+        <v>0.00155</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0114448</v>
+        <v>0.000344</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00304724</v>
+        <v>9.269e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00091653</v>
+        <v>2.743e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00030121</v>
+        <v>9.113000000000001e-06</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00010571</v>
+        <v>3.212e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>3.895899e-05</v>
+        <v>1.176e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06344</v>
+        <v>0.00222</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01411</v>
+        <v>0.0005037</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003771</v>
+        <v>0.0001321</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00113</v>
+        <v>4.031e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0003723</v>
+        <v>1.293e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001305</v>
+        <v>4.59e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>4.819e-05</v>
+        <v>1.678e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.09931</v>
+        <v>0.003001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02206</v>
+        <v>0.0006771</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005878</v>
+        <v>0.0001796</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001773</v>
+        <v>5.435e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0005803</v>
+        <v>1.782e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0002042</v>
+        <v>6.208e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>7.514e-05</v>
+        <v>2.3e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1426</v>
+        <v>0.00397</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03187</v>
+        <v>0.0008817</v>
       </c>
       <c r="D9" t="n">
-        <v>0.008487</v>
+        <v>0.0002366</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002548</v>
+        <v>7.064e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0008382</v>
+        <v>2.33e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0002933</v>
+        <v>8.179000000000001e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0001082</v>
+        <v>3.011e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
+          <t>0.5625</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.005008</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.001117</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0002944</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8.928e-05</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.942e-05</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.039e-05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.808e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.006211</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001373</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0003669</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0001101</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.624e-05</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.269e-05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.725e-06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>0.6875</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.007444</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.001688</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0004454</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0001344</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4.359e-05</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.563e-05</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5.705e-06</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.008862</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.001974</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0005263000000000001</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0001589</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5.241e-05</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.838e-05</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6.764e-06</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>0.8125</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01046</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.002352</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0006209</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.000187</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6.036e-05</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.15e-05</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7.882e-06</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.01214</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.002686</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0007186</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0002167</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7.162e-05</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.467e-05</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9.120000000000001e-06</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>0.9375</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.01371</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.003094</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0008248</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0002467</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8.181e-05</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.874e-05</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.05e-05</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.01588</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.003554</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0009331</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0002823</v>
+      </c>
+      <c r="F17" t="n">
+        <v>9.317e-05</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.267e-05</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.195e-05</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>1.0625</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.01802</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.004006</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.001063</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0003175</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0001051</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.689e-05</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.358e-05</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>1.125</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.02014</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.004481</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.001188</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0003583</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0001177</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4.125e-05</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.51e-05</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>1.1875</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.02227</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.004959</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.00133</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0003985</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0001323</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4.598e-05</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.679e-05</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.02471</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.005515</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.001459</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.000439</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0001455</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5.052e-05</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.885e-05</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>1.3125</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.02709</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.006069</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0004888</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.00016</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.689e-05</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.062e-05</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>1.375</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.03012</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.006665</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.001768</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0005358</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0001767</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6.174e-05</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.279e-05</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>1.4375</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.03297</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.007343</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.001947</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.000581</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0001922</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6.697e-05</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.479e-05</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.03545</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.007956</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.002115</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0006356000000000001</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0002071</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7.349e-05</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.692e-05</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>1.5625</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0387</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.008569</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.002306</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0006942</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0002277</v>
+      </c>
+      <c r="G26" t="n">
+        <v>8.019e-05</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.946e-05</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>1.625</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.04199</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.009337</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.002481</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0007515</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0002441</v>
+      </c>
+      <c r="G27" t="n">
+        <v>8.538999999999999e-05</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.188e-05</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>1.6875</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.04522</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01008</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.002682</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0007993</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0002639</v>
+      </c>
+      <c r="G28" t="n">
+        <v>9.214e-05</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.429e-05</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.04872</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01072</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.002909</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0008589</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0002847</v>
+      </c>
+      <c r="G29" t="n">
+        <v>9.974e-05</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.698e-05</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>1.8125</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.05185</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.01156</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.003078</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0009286</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0003072</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0001066</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.925e-05</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>1.875</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.05564</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01245</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.003319</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0009874</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0003245</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0001145</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4.229e-05</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>1.9375</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.05906</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01325</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.003538</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.001053</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0003503</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0001216</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4.528e-05</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.06306</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0142</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.003742</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.001139</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0003719</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0001291</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.797e-05</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2.0625</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.06703000000000001</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.01504</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.004017</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.001204</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0003953</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0001386</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5.081e-05</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2.125</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.07113999999999999</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01595</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.00424</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.001275</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0004274</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0001464</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5.363e-05</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2.1875</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.07577</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.01688</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.004522</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.001355</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0004436</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0001558</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5.724e-05</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.08031000000000001</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.01777</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.004806</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.001423</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0004711</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0001642</v>
+      </c>
+      <c r="H37" t="n">
+        <v>6.076e-05</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2.3125</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.08522</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.01886</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.004978</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.001523</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0005018000000000001</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0001745</v>
+      </c>
+      <c r="H38" t="n">
+        <v>6.406000000000001e-05</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2.375</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.08958000000000001</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.01974</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.005267</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.001605</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0005249</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0001836</v>
+      </c>
+      <c r="H39" t="n">
+        <v>6.721e-05</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>2.4375</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.09431</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.02095</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.005631</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.001676</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0005527</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0001963</v>
+      </c>
+      <c r="H40" t="n">
+        <v>7.134e-05</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.09895</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.02204</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.005872</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.001767</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0005814</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0002049</v>
+      </c>
+      <c r="H41" t="n">
+        <v>7.514e-05</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2.5625</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.1036</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.02325</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.006177</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.001856</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0006073</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0002149</v>
+      </c>
+      <c r="H42" t="n">
+        <v>7.904e-05</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2.625</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1091</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.02402</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.006465</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.00194</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0006415</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0002249</v>
+      </c>
+      <c r="H43" t="n">
+        <v>8.366e-05</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2.6875</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.1155</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.02556</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.006827</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.002055</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0006693</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0002343</v>
+      </c>
+      <c r="H44" t="n">
+        <v>8.74e-05</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.1202</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.02653</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.007088</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.002148</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0007141</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0002472</v>
+      </c>
+      <c r="H45" t="n">
+        <v>9.062e-05</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2.8125</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.1237</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.0279</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.007402</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.002224</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.000742</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0002573</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9.549e-05</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2.875</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.1303</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.02949</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.007737</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.002352</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0007756</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0002705</v>
+      </c>
+      <c r="H47" t="n">
+        <v>9.967999999999999e-05</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2.9375</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.1365</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.03063</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.008174000000000001</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.002429</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0008051999999999999</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0002829</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0001027</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1426</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.03198</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.008482</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.002557</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0008347</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0002939</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0001077</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>3.0625</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.1503</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.03303</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.008833000000000001</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.002643</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0008725</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.000308</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.000113</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>3.125</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.1553</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.03439</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.009206000000000001</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.002754</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0009058</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0003192</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.0001182</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>3.1875</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.1619</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.009459</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.00287</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0009485</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0003317</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.000122</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.03767</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.009948</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.002978</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0009813000000000001</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0003453</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.0001272</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>3.3125</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.1752</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.03866</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.003081</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.001017</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0003601</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0001316</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>3.375</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.04015</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.01074</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.003228</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.001064</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0003696</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.0001371</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>3.4375</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.1873</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.04193</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.01122</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.003344</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0003856</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0001422</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.1935</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.04324</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.01153</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.003467</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.001142</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0003988</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="B57" t="n">
+        <v>0.1946</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.04369</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.01145</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.003483</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.001138</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.000399</v>
+      </c>
+      <c r="H57" t="n">
         <v>0.0001469</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.05132095</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.0114448</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.00304724</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.00091653</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.00030121</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.00010571</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3.895899e-05</v>
       </c>
     </row>
   </sheetData>
